--- a/datasets/selfservice/RF/analysis_dataset.xlsx
+++ b/datasets/selfservice/RF/analysis_dataset.xlsx
@@ -675,6 +675,9 @@
     <t>810905</t>
   </si>
   <si>
+    <t>810898</t>
+  </si>
+  <si>
     <t>810888</t>
   </si>
   <si>
@@ -855,9 +858,6 @@
     <t>809396</t>
   </si>
   <si>
-    <t>810898</t>
-  </si>
-  <si>
     <t>db_id</t>
   </si>
   <si>
@@ -1929,6 +1929,9 @@
     <t>typical; more up</t>
   </si>
   <si>
+    <t>long; nice; sedating; stronger</t>
+  </si>
+  <si>
     <t>weaker; nice</t>
   </si>
   <si>
@@ -1962,9 +1965,6 @@
     <t>unusual</t>
   </si>
   <si>
-    <t>long; nice; sedating; stronger</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -2076,6 +2076,9 @@
     <t>04mar2025</t>
   </si>
   <si>
+    <t>10jul2025</t>
+  </si>
+  <si>
     <t>12mar2025</t>
   </si>
   <si>
@@ -2140,9 +2143,6 @@
   </si>
   <si>
     <t>02jul2025</t>
-  </si>
-  <si>
-    <t>10jul2025</t>
   </si>
   <si>
     <t>lab_num_substances_any</t>
@@ -34511,17 +34511,15 @@
         <v>1</v>
       </c>
       <c r="AT145" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV145" s="1">
         <v>0</v>
       </c>
-      <c r="AW145" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW145" s="1"/>
       <c r="AX145" s="1">
         <v>0</v>
       </c>
@@ -34547,7 +34545,7 @@
         <v>0</v>
       </c>
       <c r="BF145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG145" s="1">
         <v>0</v>
@@ -34953,7 +34951,7 @@
         <v>1</v>
       </c>
       <c r="AT147" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU147" s="1">
         <v>3</v>
@@ -35174,7 +35172,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU148" s="1">
         <v>2</v>
@@ -35393,7 +35391,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AU149" s="1">
         <v>2</v>
@@ -35616,7 +35614,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AU150" s="1">
         <v>11</v>
@@ -36054,7 +36052,7 @@
         <v>1</v>
       </c>
       <c r="AT152" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AU152" s="1">
         <v>7</v>
@@ -36275,7 +36273,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AU153" s="1">
         <v>6</v>
@@ -36494,7 +36492,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AU154" s="1">
         <v>5</v>
@@ -36717,7 +36715,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AU155" s="1">
         <v>6</v>
@@ -37386,7 +37384,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU158" s="1">
         <v>7</v>
@@ -37603,7 +37601,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU159" s="1">
         <v>7</v>
@@ -38045,7 +38043,7 @@
         <v>1</v>
       </c>
       <c r="AT161" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU161" s="1">
         <v>5</v>
@@ -38264,7 +38262,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU162" s="1">
         <v>6</v>
@@ -38708,7 +38706,7 @@
         <v>1</v>
       </c>
       <c r="AT164" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU164" s="1">
         <v>6</v>
@@ -38929,7 +38927,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AU165" s="1">
         <v>0</v>
@@ -41143,7 +41141,7 @@
         <v>1</v>
       </c>
       <c r="AT175" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AU175" s="1">
         <v>1</v>
@@ -43144,7 +43142,7 @@
         <v>1</v>
       </c>
       <c r="AT184" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AU184" s="1">
         <v>8</v>
@@ -43365,7 +43363,7 @@
         <v>1</v>
       </c>
       <c r="AT185" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AU185" s="1">
         <v>17</v>
@@ -43807,7 +43805,7 @@
         <v>1</v>
       </c>
       <c r="AT187" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU187" s="1">
         <v>0</v>
@@ -45808,7 +45806,7 @@
         <v>1</v>
       </c>
       <c r="AT196" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU196" s="1">
         <v>9</v>
@@ -46469,7 +46467,7 @@
         <v>1</v>
       </c>
       <c r="AT199" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU199" s="1">
         <v>9</v>
@@ -47795,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="AT205" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU205" s="1">
         <v>13</v>
@@ -48237,7 +48235,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU207" s="1">
         <v>11</v>
@@ -48460,7 +48458,7 @@
         <v>1</v>
       </c>
       <c r="AT208" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU208" s="1">
         <v>13</v>
@@ -50009,7 +50007,7 @@
         <v>1</v>
       </c>
       <c r="AT215" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU215" s="1">
         <v>7</v>
@@ -50449,7 +50447,7 @@
         <v>1</v>
       </c>
       <c r="AT217" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU217" s="1">
         <v>7</v>
@@ -50670,7 +50668,7 @@
         <v>1</v>
       </c>
       <c r="AT218" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU218" s="1">
         <v>4</v>
@@ -50891,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AT219" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU219" s="1">
         <v>2</v>
@@ -51110,7 +51108,7 @@
         <v>1</v>
       </c>
       <c r="AT220" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU220" s="1">
         <v>11</v>
@@ -51227,7 +51225,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>13106</v>
+        <v>13105</v>
       </c>
       <c r="C221" s="1">
         <v>114</v>
@@ -51236,7 +51234,7 @@
         <v>284</v>
       </c>
       <c r="E221" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F221" t="s">
         <v>308</v>
@@ -51248,28 +51246,28 @@
         <v>381</v>
       </c>
       <c r="I221" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J221" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K221" t="s">
         <v>412</v>
       </c>
       <c r="L221" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221" s="1">
         <v>0</v>
@@ -51278,7 +51276,7 @@
         <v>0</v>
       </c>
       <c r="S221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T221" s="1">
         <v>0</v>
@@ -51287,27 +51285,31 @@
         <v>0</v>
       </c>
       <c r="V221" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="W221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X221" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="Y221" s="1"/>
-      <c r="Z221" s="1"/>
-      <c r="AA221" s="1"/>
+      <c r="Z221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA221" s="1">
+        <v>1</v>
+      </c>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
       <c r="AD221" t="s">
         <v>304</v>
       </c>
       <c r="AE221" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="AF221" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="AG221" s="1"/>
       <c r="AH221" s="1"/>
@@ -51316,22 +51318,22 @@
       <c r="AK221" s="1">
         <v>1</v>
       </c>
-      <c r="AL221" s="1"/>
+      <c r="AL221" s="1">
+        <v>1</v>
+      </c>
       <c r="AM221" s="1"/>
       <c r="AN221" s="1"/>
       <c r="AO221" s="1"/>
       <c r="AP221" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ221" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ221" s="1"/>
       <c r="AR221" s="1"/>
       <c r="AS221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT221" t="s">
-        <v>384</v>
+        <v>687</v>
       </c>
       <c r="AU221" s="1">
         <v>1</v>
@@ -51362,10 +51364,10 @@
         <v>0</v>
       </c>
       <c r="BE221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG221" s="1">
         <v>0</v>
@@ -51431,30 +51433,24 @@
         <v>0</v>
       </c>
       <c r="CB221" t="s">
-        <v>744</v>
-      </c>
-      <c r="CC221" s="1">
-        <v>12</v>
-      </c>
-      <c r="CD221" s="1">
-        <v>99</v>
-      </c>
-      <c r="CE221" s="1">
-        <v>12099</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="CC221" s="1"/>
+      <c r="CD221" s="1"/>
+      <c r="CE221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>13107</v>
+        <v>13106</v>
       </c>
       <c r="C222" s="1">
         <v>114</v>
       </c>
       <c r="D222" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E222" t="s">
         <v>286</v>
@@ -51478,19 +51474,19 @@
         <v>412</v>
       </c>
       <c r="L222" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O222" s="1">
         <v>0</v>
       </c>
       <c r="P222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q222" s="1">
         <v>0</v>
@@ -51499,7 +51495,7 @@
         <v>0</v>
       </c>
       <c r="S222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T222" s="1">
         <v>0</v>
@@ -51514,31 +51510,29 @@
         <v>0</v>
       </c>
       <c r="X222" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
-      <c r="AA222" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
       <c r="AD222" t="s">
         <v>304</v>
       </c>
       <c r="AE222" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AF222" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AG222" s="1"/>
       <c r="AH222" s="1"/>
       <c r="AI222" s="1"/>
-      <c r="AJ222" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK222" s="1"/>
+      <c r="AJ222" s="1"/>
+      <c r="AK222" s="1">
+        <v>1</v>
+      </c>
       <c r="AL222" s="1"/>
       <c r="AM222" s="1"/>
       <c r="AN222" s="1"/>
@@ -51554,20 +51548,20 @@
         <v>1</v>
       </c>
       <c r="AT222" t="s">
-        <v>696</v>
+        <v>384</v>
       </c>
       <c r="AU222" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV222" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW222" s="1"/>
       <c r="AX222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ222" s="1">
         <v>0</v>
@@ -51585,10 +51579,10 @@
         <v>0</v>
       </c>
       <c r="BE222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG222" s="1">
         <v>0</v>
@@ -51624,10 +51618,10 @@
         <v>0</v>
       </c>
       <c r="BR222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT222" s="1">
         <v>0</v>
@@ -51671,7 +51665,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>13108</v>
+        <v>13107</v>
       </c>
       <c r="C223" s="1">
         <v>114</v>
@@ -51692,10 +51686,10 @@
         <v>381</v>
       </c>
       <c r="I223" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J223" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K223" t="s">
         <v>412</v>
@@ -51731,10 +51725,10 @@
         <v>0</v>
       </c>
       <c r="V223" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X223" t="s">
         <v>521</v>
@@ -51750,10 +51744,10 @@
         <v>304</v>
       </c>
       <c r="AE223" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AF223" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
@@ -51762,9 +51756,7 @@
         <v>1</v>
       </c>
       <c r="AK223" s="1"/>
-      <c r="AL223" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL223" s="1"/>
       <c r="AM223" s="1"/>
       <c r="AN223" s="1"/>
       <c r="AO223" s="1"/>
@@ -51779,10 +51771,10 @@
         <v>1</v>
       </c>
       <c r="AT223" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU223" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV223" s="1">
         <v>4</v>
@@ -51896,13 +51888,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>13109</v>
+        <v>13108</v>
       </c>
       <c r="C224" s="1">
         <v>114</v>
       </c>
       <c r="D224" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E224" t="s">
         <v>286</v>
@@ -51917,10 +51909,10 @@
         <v>381</v>
       </c>
       <c r="I224" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J224" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K224" t="s">
         <v>412</v>
@@ -51956,10 +51948,10 @@
         <v>0</v>
       </c>
       <c r="V224" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X224" t="s">
         <v>521</v>
@@ -51975,36 +51967,42 @@
         <v>304</v>
       </c>
       <c r="AE224" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AF224" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="AG224" s="1"/>
       <c r="AH224" s="1"/>
       <c r="AI224" s="1"/>
-      <c r="AJ224" s="1"/>
+      <c r="AJ224" s="1">
+        <v>1</v>
+      </c>
       <c r="AK224" s="1"/>
-      <c r="AL224" s="1"/>
+      <c r="AL224" s="1">
+        <v>1</v>
+      </c>
       <c r="AM224" s="1"/>
       <c r="AN224" s="1"/>
       <c r="AO224" s="1"/>
       <c r="AP224" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ224" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ224" s="1">
+        <v>0</v>
+      </c>
       <c r="AR224" s="1"/>
       <c r="AS224" s="1">
         <v>1</v>
       </c>
       <c r="AT224" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU224" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV224" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW224" s="1"/>
       <c r="AX224" s="1">
@@ -52029,10 +52027,10 @@
         <v>0</v>
       </c>
       <c r="BE224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG224" s="1">
         <v>0</v>
@@ -52115,7 +52113,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>13256</v>
+        <v>13109</v>
       </c>
       <c r="C225" s="1">
         <v>114</v>
@@ -52133,7 +52131,7 @@
         <v>310</v>
       </c>
       <c r="H225" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I225" t="s">
         <v>393</v>
@@ -52145,7 +52143,7 @@
         <v>412</v>
       </c>
       <c r="L225" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="M225" s="1">
         <v>1</v>
@@ -52175,26 +52173,26 @@
         <v>0</v>
       </c>
       <c r="V225" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="W225" s="1">
         <v>0</v>
       </c>
       <c r="X225" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y225" s="1">
-        <v>1</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
-      <c r="AA225" s="1"/>
+      <c r="AA225" s="1">
+        <v>1</v>
+      </c>
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
       <c r="AD225" t="s">
         <v>304</v>
       </c>
       <c r="AE225" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="AF225" t="s">
         <v>598</v>
@@ -52203,9 +52201,7 @@
       <c r="AH225" s="1"/>
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
-      <c r="AK225" s="1">
-        <v>1</v>
-      </c>
+      <c r="AK225" s="1"/>
       <c r="AL225" s="1"/>
       <c r="AM225" s="1"/>
       <c r="AN225" s="1"/>
@@ -52219,13 +52215,13 @@
         <v>1</v>
       </c>
       <c r="AT225" t="s">
-        <v>385</v>
+        <v>697</v>
       </c>
       <c r="AU225" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV225" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW225" s="1"/>
       <c r="AX225" s="1">
@@ -52235,10 +52231,10 @@
         <v>1</v>
       </c>
       <c r="AZ225" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA225" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB225" s="1">
         <v>0</v>
@@ -52250,7 +52246,7 @@
         <v>0</v>
       </c>
       <c r="BE225" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF225" s="1">
         <v>1</v>
@@ -52283,7 +52279,7 @@
         <v>0</v>
       </c>
       <c r="BP225" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ225" s="1">
         <v>0</v>
@@ -52336,7 +52332,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>13257</v>
+        <v>13256</v>
       </c>
       <c r="C226" s="1">
         <v>114</v>
@@ -52402,15 +52398,13 @@
         <v>0</v>
       </c>
       <c r="X226" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Y226" s="1">
         <v>1</v>
       </c>
       <c r="Z226" s="1"/>
-      <c r="AA226" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
       <c r="AD226" t="s">
@@ -52420,13 +52414,15 @@
         <v>639</v>
       </c>
       <c r="AF226" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG226" s="1"/>
       <c r="AH226" s="1"/>
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
-      <c r="AK226" s="1"/>
+      <c r="AK226" s="1">
+        <v>1</v>
+      </c>
       <c r="AL226" s="1"/>
       <c r="AM226" s="1"/>
       <c r="AN226" s="1"/>
@@ -52443,10 +52439,10 @@
         <v>385</v>
       </c>
       <c r="AU226" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV226" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW226" s="1"/>
       <c r="AX226" s="1">
@@ -52477,7 +52473,7 @@
         <v>1</v>
       </c>
       <c r="BG226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH226" s="1">
         <v>0</v>
@@ -52498,10 +52494,10 @@
         <v>0</v>
       </c>
       <c r="BN226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP226" s="1">
         <v>1</v>
@@ -52557,7 +52553,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>13258</v>
+        <v>13257</v>
       </c>
       <c r="C227" s="1">
         <v>114</v>
@@ -52575,19 +52571,19 @@
         <v>310</v>
       </c>
       <c r="H227" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I227" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J227" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K227" t="s">
         <v>412</v>
       </c>
       <c r="L227" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="M227" s="1">
         <v>1</v>
@@ -52617,17 +52613,21 @@
         <v>0</v>
       </c>
       <c r="V227" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="W227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X227" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y227" s="1"/>
+        <v>565</v>
+      </c>
+      <c r="Y227" s="1">
+        <v>1</v>
+      </c>
       <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
+      <c r="AA227" s="1">
+        <v>1</v>
+      </c>
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
       <c r="AD227" t="s">
@@ -52643,12 +52643,8 @@
       <c r="AH227" s="1"/>
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
-      <c r="AK227" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL227" s="1">
-        <v>1</v>
-      </c>
+      <c r="AK227" s="1"/>
+      <c r="AL227" s="1"/>
       <c r="AM227" s="1"/>
       <c r="AN227" s="1"/>
       <c r="AO227" s="1"/>
@@ -52661,26 +52657,26 @@
         <v>1</v>
       </c>
       <c r="AT227" t="s">
-        <v>697</v>
+        <v>385</v>
       </c>
       <c r="AU227" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AV227" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW227" s="1"/>
       <c r="AX227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB227" s="1">
         <v>0</v>
@@ -52695,10 +52691,10 @@
         <v>0</v>
       </c>
       <c r="BF227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH227" s="1">
         <v>0</v>
@@ -52719,22 +52715,22 @@
         <v>0</v>
       </c>
       <c r="BN227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ227" s="1">
         <v>0</v>
       </c>
       <c r="BR227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT227" s="1">
         <v>0</v>
@@ -52778,7 +52774,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>13259</v>
+        <v>13258</v>
       </c>
       <c r="C228" s="1">
         <v>114</v>
@@ -52796,7 +52792,7 @@
         <v>310</v>
       </c>
       <c r="H228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I228" t="s">
         <v>404</v>
@@ -52838,29 +52834,27 @@
         <v>0</v>
       </c>
       <c r="V228" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="W228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X228" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
-      <c r="AA228" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
       <c r="AD228" t="s">
         <v>304</v>
       </c>
       <c r="AE228" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="AF228" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="AG228" s="1"/>
       <c r="AH228" s="1"/>
@@ -52869,7 +52863,9 @@
       <c r="AK228" s="1">
         <v>1</v>
       </c>
-      <c r="AL228" s="1"/>
+      <c r="AL228" s="1">
+        <v>1</v>
+      </c>
       <c r="AM228" s="1"/>
       <c r="AN228" s="1"/>
       <c r="AO228" s="1"/>
@@ -52882,20 +52878,20 @@
         <v>1</v>
       </c>
       <c r="AT228" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AU228" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AV228" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW228" s="1"/>
       <c r="AX228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ228" s="1">
         <v>0</v>
@@ -52907,16 +52903,16 @@
         <v>0</v>
       </c>
       <c r="BC228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE228" s="1">
         <v>0</v>
       </c>
       <c r="BF228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG228" s="1">
         <v>0</v>
@@ -52952,10 +52948,10 @@
         <v>0</v>
       </c>
       <c r="BR228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT228" s="1">
         <v>0</v>
@@ -52999,13 +52995,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>13260</v>
+        <v>13259</v>
       </c>
       <c r="C229" s="1">
         <v>114</v>
       </c>
       <c r="D229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E229" t="s">
         <v>286</v>
@@ -53017,13 +53013,13 @@
         <v>310</v>
       </c>
       <c r="H229" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I229" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J229" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K229" t="s">
         <v>412</v>
@@ -53059,13 +53055,13 @@
         <v>0</v>
       </c>
       <c r="V229" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="W229" s="1">
         <v>0</v>
       </c>
       <c r="X229" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
@@ -53078,10 +53074,10 @@
         <v>304</v>
       </c>
       <c r="AE229" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AF229" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AG229" s="1"/>
       <c r="AH229" s="1"/>
@@ -53103,10 +53099,10 @@
         <v>1</v>
       </c>
       <c r="AT229" t="s">
-        <v>385</v>
+        <v>698</v>
       </c>
       <c r="AU229" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV229" s="1">
         <v>4</v>
@@ -53128,16 +53124,16 @@
         <v>0</v>
       </c>
       <c r="BC229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE229" s="1">
         <v>0</v>
       </c>
       <c r="BF229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG229" s="1">
         <v>0</v>
@@ -53220,13 +53216,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>13264</v>
+        <v>13260</v>
       </c>
       <c r="C230" s="1">
         <v>114</v>
       </c>
       <c r="D230" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E230" t="s">
         <v>286</v>
@@ -53238,13 +53234,13 @@
         <v>310</v>
       </c>
       <c r="H230" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I230" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J230" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K230" t="s">
         <v>412</v>
@@ -53286,12 +53282,10 @@
         <v>0</v>
       </c>
       <c r="X230" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Y230" s="1"/>
-      <c r="Z230" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z230" s="1"/>
       <c r="AA230" s="1">
         <v>1</v>
       </c>
@@ -53301,10 +53295,10 @@
         <v>304</v>
       </c>
       <c r="AE230" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AF230" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG230" s="1"/>
       <c r="AH230" s="1"/>
@@ -53329,10 +53323,10 @@
         <v>385</v>
       </c>
       <c r="AU230" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV230" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW230" s="1"/>
       <c r="AX230" s="1">
@@ -53345,10 +53339,10 @@
         <v>0</v>
       </c>
       <c r="BA230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC230" s="1">
         <v>0</v>
@@ -53357,13 +53351,13 @@
         <v>0</v>
       </c>
       <c r="BE230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH230" s="1">
         <v>0</v>
@@ -53390,7 +53384,7 @@
         <v>0</v>
       </c>
       <c r="BP230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ230" s="1">
         <v>0</v>
@@ -53443,7 +53437,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>13265</v>
+        <v>13264</v>
       </c>
       <c r="C231" s="1">
         <v>114</v>
@@ -53461,13 +53455,13 @@
         <v>310</v>
       </c>
       <c r="H231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I231" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J231" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K231" t="s">
         <v>412</v>
@@ -53503,16 +53497,18 @@
         <v>0</v>
       </c>
       <c r="V231" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="W231" s="1">
         <v>0</v>
       </c>
       <c r="X231" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
+      <c r="Z231" s="1">
+        <v>1</v>
+      </c>
       <c r="AA231" s="1">
         <v>1</v>
       </c>
@@ -53525,7 +53521,7 @@
         <v>642</v>
       </c>
       <c r="AF231" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="AG231" s="1"/>
       <c r="AH231" s="1"/>
@@ -53550,7 +53546,7 @@
         <v>385</v>
       </c>
       <c r="AU231" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV231" s="1">
         <v>5</v>
@@ -53578,10 +53574,10 @@
         <v>0</v>
       </c>
       <c r="BE231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG231" s="1">
         <v>1</v>
@@ -53611,7 +53607,7 @@
         <v>0</v>
       </c>
       <c r="BP231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ231" s="1">
         <v>0</v>
@@ -53664,7 +53660,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>13266</v>
+        <v>13265</v>
       </c>
       <c r="C232" s="1">
         <v>114</v>
@@ -53682,19 +53678,19 @@
         <v>310</v>
       </c>
       <c r="H232" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I232" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J232" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K232" t="s">
         <v>412</v>
       </c>
       <c r="L232" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="M232" s="1">
         <v>1</v>
@@ -53724,17 +53720,15 @@
         <v>0</v>
       </c>
       <c r="V232" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="W232" s="1">
         <v>0</v>
       </c>
       <c r="X232" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y232" s="1">
-        <v>1</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
       <c r="AA232" s="1">
         <v>1</v>
@@ -53748,7 +53742,7 @@
         <v>643</v>
       </c>
       <c r="AF232" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
@@ -53776,7 +53770,7 @@
         <v>11</v>
       </c>
       <c r="AV232" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW232" s="1"/>
       <c r="AX232" s="1">
@@ -53786,13 +53780,13 @@
         <v>1</v>
       </c>
       <c r="AZ232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA232" s="1">
         <v>1</v>
       </c>
       <c r="BB232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC232" s="1">
         <v>0</v>
@@ -53804,10 +53798,10 @@
         <v>0</v>
       </c>
       <c r="BF232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH232" s="1">
         <v>0</v>
@@ -53834,7 +53828,7 @@
         <v>0</v>
       </c>
       <c r="BP232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ232" s="1">
         <v>0</v>
@@ -53887,16 +53881,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>13267</v>
+        <v>13266</v>
       </c>
       <c r="C233" s="1">
         <v>114</v>
       </c>
       <c r="D233" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E233" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F233" t="s">
         <v>308</v>
@@ -53905,19 +53899,19 @@
         <v>310</v>
       </c>
       <c r="H233" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I233" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="J233" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="K233" t="s">
         <v>412</v>
       </c>
       <c r="L233" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="M233" s="1">
         <v>1</v>
@@ -53947,15 +53941,17 @@
         <v>0</v>
       </c>
       <c r="V233" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="W233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X233" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y233" s="1"/>
+        <v>567</v>
+      </c>
+      <c r="Y233" s="1">
+        <v>1</v>
+      </c>
       <c r="Z233" s="1"/>
       <c r="AA233" s="1">
         <v>1</v>
@@ -53969,7 +53965,7 @@
         <v>644</v>
       </c>
       <c r="AF233" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="AG233" s="1"/>
       <c r="AH233" s="1"/>
@@ -53994,10 +53990,10 @@
         <v>385</v>
       </c>
       <c r="AU233" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV233" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW233" s="1"/>
       <c r="AX233" s="1">
@@ -54007,10 +54003,10 @@
         <v>1</v>
       </c>
       <c r="AZ233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB233" s="1">
         <v>0</v>
@@ -54025,10 +54021,10 @@
         <v>0</v>
       </c>
       <c r="BF233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH233" s="1">
         <v>0</v>
@@ -54055,7 +54051,7 @@
         <v>0</v>
       </c>
       <c r="BP233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ233" s="1">
         <v>0</v>
@@ -54091,16 +54087,16 @@
         <v>0</v>
       </c>
       <c r="CB233" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="CC233" s="1">
         <v>12</v>
       </c>
       <c r="CD233" s="1">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="CE233" s="1">
-        <v>12011</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="234">
@@ -54108,16 +54104,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>13268</v>
+        <v>13267</v>
       </c>
       <c r="C234" s="1">
         <v>114</v>
       </c>
       <c r="D234" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E234" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F234" t="s">
         <v>308</v>
@@ -54126,13 +54122,13 @@
         <v>310</v>
       </c>
       <c r="H234" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I234" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J234" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K234" t="s">
         <v>412</v>
@@ -54168,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="V234" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="W234" s="1">
         <v>1</v>
@@ -54190,18 +54186,16 @@
         <v>645</v>
       </c>
       <c r="AF234" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG234" s="1"/>
       <c r="AH234" s="1"/>
       <c r="AI234" s="1"/>
-      <c r="AJ234" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK234" s="1"/>
-      <c r="AL234" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ234" s="1"/>
+      <c r="AK234" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL234" s="1"/>
       <c r="AM234" s="1"/>
       <c r="AN234" s="1"/>
       <c r="AO234" s="1"/>
@@ -54220,7 +54214,7 @@
         <v>6</v>
       </c>
       <c r="AV234" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW234" s="1"/>
       <c r="AX234" s="1">
@@ -54314,16 +54308,16 @@
         <v>0</v>
       </c>
       <c r="CB234" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="CC234" s="1">
         <v>12</v>
       </c>
       <c r="CD234" s="1">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="CE234" s="1">
-        <v>12099</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="235">
@@ -54331,13 +54325,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>13344</v>
+        <v>13268</v>
       </c>
       <c r="C235" s="1">
         <v>114</v>
       </c>
       <c r="D235" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E235" t="s">
         <v>286</v>
@@ -54349,7 +54343,7 @@
         <v>310</v>
       </c>
       <c r="H235" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I235" t="s">
         <v>404</v>
@@ -54391,7 +54385,7 @@
         <v>0</v>
       </c>
       <c r="V235" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="W235" s="1">
         <v>1</v>
@@ -54400,9 +54394,7 @@
         <v>521</v>
       </c>
       <c r="Y235" s="1"/>
-      <c r="Z235" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z235" s="1"/>
       <c r="AA235" s="1">
         <v>1</v>
       </c>
@@ -54412,21 +54404,21 @@
         <v>304</v>
       </c>
       <c r="AE235" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="AF235" t="s">
-        <v>579</v>
-      </c>
-      <c r="AG235" s="1">
-        <v>1</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="AG235" s="1"/>
       <c r="AH235" s="1"/>
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1">
         <v>1</v>
       </c>
       <c r="AK235" s="1"/>
-      <c r="AL235" s="1"/>
+      <c r="AL235" s="1">
+        <v>1</v>
+      </c>
       <c r="AM235" s="1"/>
       <c r="AN235" s="1"/>
       <c r="AO235" s="1"/>
@@ -54439,13 +54431,13 @@
         <v>1</v>
       </c>
       <c r="AT235" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AU235" s="1">
         <v>6</v>
       </c>
       <c r="AV235" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW235" s="1"/>
       <c r="AX235" s="1">
@@ -54476,7 +54468,7 @@
         <v>0</v>
       </c>
       <c r="BG235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH235" s="1">
         <v>0</v>
@@ -54556,13 +54548,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>13345</v>
+        <v>13344</v>
       </c>
       <c r="C236" s="1">
         <v>114</v>
       </c>
       <c r="D236" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E236" t="s">
         <v>286</v>
@@ -54616,13 +54608,13 @@
         <v>0</v>
       </c>
       <c r="V236" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W236" s="1">
         <v>1</v>
       </c>
       <c r="X236" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y236" s="1"/>
       <c r="Z236" s="1">
@@ -54664,13 +54656,13 @@
         <v>1</v>
       </c>
       <c r="AT236" t="s">
-        <v>697</v>
+        <v>387</v>
       </c>
       <c r="AU236" s="1">
         <v>6</v>
       </c>
       <c r="AV236" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW236" s="1"/>
       <c r="AX236" s="1">
@@ -54683,10 +54675,10 @@
         <v>0</v>
       </c>
       <c r="BA236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC236" s="1">
         <v>0</v>
@@ -54781,16 +54773,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>13346</v>
+        <v>13345</v>
       </c>
       <c r="C237" s="1">
         <v>114</v>
       </c>
       <c r="D237" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E237" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F237" t="s">
         <v>308</v>
@@ -54808,16 +54800,16 @@
         <v>404</v>
       </c>
       <c r="K237" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L237" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="M237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O237" s="1">
         <v>0</v>
@@ -54838,35 +54830,43 @@
         <v>0</v>
       </c>
       <c r="U237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V237" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X237" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="Y237" s="1"/>
-      <c r="Z237" s="1"/>
-      <c r="AA237" s="1"/>
+      <c r="Z237" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA237" s="1">
+        <v>1</v>
+      </c>
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
       <c r="AD237" t="s">
         <v>304</v>
       </c>
       <c r="AE237" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="AF237" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG237" s="1"/>
+        <v>579</v>
+      </c>
+      <c r="AG237" s="1">
+        <v>1</v>
+      </c>
       <c r="AH237" s="1"/>
       <c r="AI237" s="1"/>
-      <c r="AJ237" s="1"/>
+      <c r="AJ237" s="1">
+        <v>1</v>
+      </c>
       <c r="AK237" s="1"/>
       <c r="AL237" s="1"/>
       <c r="AM237" s="1"/>
@@ -54884,26 +54884,26 @@
         <v>698</v>
       </c>
       <c r="AU237" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV237" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW237" s="1"/>
       <c r="AX237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ237" s="1">
         <v>0</v>
       </c>
       <c r="BA237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC237" s="1">
         <v>0</v>
@@ -54951,10 +54951,10 @@
         <v>0</v>
       </c>
       <c r="BR237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT237" s="1">
         <v>0</v>
@@ -54981,16 +54981,16 @@
         <v>0</v>
       </c>
       <c r="CB237" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="CC237" s="1">
         <v>12</v>
       </c>
       <c r="CD237" s="1">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="CE237" s="1">
-        <v>12086</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="238">
@@ -54998,16 +54998,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>13347</v>
+        <v>13346</v>
       </c>
       <c r="C238" s="1">
         <v>114</v>
       </c>
       <c r="D238" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E238" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F238" t="s">
         <v>308</v>
@@ -55019,22 +55019,22 @@
         <v>383</v>
       </c>
       <c r="I238" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J238" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K238" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L238" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="M238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O238" s="1">
         <v>0</v>
@@ -55055,32 +55055,30 @@
         <v>0</v>
       </c>
       <c r="U238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V238" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="W238" s="1">
         <v>0</v>
       </c>
       <c r="X238" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
-      <c r="AA238" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
       <c r="AD238" t="s">
         <v>304</v>
       </c>
       <c r="AE238" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="AF238" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="AG238" s="1"/>
       <c r="AH238" s="1"/>
@@ -55100,20 +55098,20 @@
         <v>1</v>
       </c>
       <c r="AT238" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AU238" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV238" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW238" s="1"/>
       <c r="AX238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ238" s="1">
         <v>0</v>
@@ -55128,7 +55126,7 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE238" s="1">
         <v>0</v>
@@ -55170,10 +55168,10 @@
         <v>0</v>
       </c>
       <c r="BR238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT238" s="1">
         <v>0</v>
@@ -55200,16 +55198,16 @@
         <v>0</v>
       </c>
       <c r="CB238" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="CC238" s="1">
         <v>12</v>
       </c>
       <c r="CD238" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="CE238" s="1">
-        <v>12099</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="239">
@@ -55217,7 +55215,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>13348</v>
+        <v>13347</v>
       </c>
       <c r="C239" s="1">
         <v>114</v>
@@ -55238,10 +55236,10 @@
         <v>383</v>
       </c>
       <c r="I239" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J239" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K239" t="s">
         <v>412</v>
@@ -55277,13 +55275,13 @@
         <v>0</v>
       </c>
       <c r="V239" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="W239" s="1">
         <v>0</v>
       </c>
       <c r="X239" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
@@ -55293,20 +55291,18 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
       <c r="AD239" t="s">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="AE239" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="AF239" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AG239" s="1"/>
       <c r="AH239" s="1"/>
       <c r="AI239" s="1"/>
-      <c r="AJ239" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ239" s="1"/>
       <c r="AK239" s="1"/>
       <c r="AL239" s="1"/>
       <c r="AM239" s="1"/>
@@ -55321,22 +55317,20 @@
         <v>1</v>
       </c>
       <c r="AT239" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AU239" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV239" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW239" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AW239" s="1"/>
       <c r="AX239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ239" s="1">
         <v>0</v>
@@ -55351,7 +55345,7 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE239" s="1">
         <v>0</v>
@@ -55393,10 +55387,10 @@
         <v>0</v>
       </c>
       <c r="BR239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT239" s="1">
         <v>0</v>
@@ -55440,7 +55434,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>13367</v>
+        <v>13348</v>
       </c>
       <c r="C240" s="1">
         <v>114</v>
@@ -55461,10 +55455,10 @@
         <v>383</v>
       </c>
       <c r="I240" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J240" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K240" t="s">
         <v>412</v>
@@ -55519,7 +55513,7 @@
         <v>576</v>
       </c>
       <c r="AE240" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF240" t="s">
         <v>598</v>
@@ -55544,7 +55538,7 @@
         <v>1</v>
       </c>
       <c r="AT240" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AU240" s="1">
         <v>0</v>
@@ -55663,7 +55657,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>13368</v>
+        <v>13367</v>
       </c>
       <c r="C241" s="1">
         <v>114</v>
@@ -55684,10 +55678,10 @@
         <v>383</v>
       </c>
       <c r="I241" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J241" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K241" t="s">
         <v>412</v>
@@ -55723,28 +55717,26 @@
         <v>0</v>
       </c>
       <c r="V241" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="W241" s="1">
         <v>0</v>
       </c>
       <c r="X241" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="Y241" s="1"/>
-      <c r="Z241" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z241" s="1"/>
       <c r="AA241" s="1">
         <v>1</v>
       </c>
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
       <c r="AD241" t="s">
-        <v>304</v>
+        <v>576</v>
       </c>
       <c r="AE241" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="AF241" t="s">
         <v>598</v>
@@ -55769,29 +55761,31 @@
         <v>1</v>
       </c>
       <c r="AT241" t="s">
-        <v>387</v>
+        <v>698</v>
       </c>
       <c r="AU241" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV241" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW241" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW241" s="1">
+        <v>1</v>
+      </c>
       <c r="AX241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ241" s="1">
         <v>0</v>
       </c>
       <c r="BA241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC241" s="1">
         <v>0</v>
@@ -55839,10 +55833,10 @@
         <v>0</v>
       </c>
       <c r="BR241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT241" s="1">
         <v>0</v>
@@ -55886,7 +55880,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>13369</v>
+        <v>13368</v>
       </c>
       <c r="C242" s="1">
         <v>114</v>
@@ -55907,10 +55901,10 @@
         <v>383</v>
       </c>
       <c r="I242" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J242" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K242" t="s">
         <v>412</v>
@@ -55946,10 +55940,10 @@
         <v>0</v>
       </c>
       <c r="V242" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="W242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X242" t="s">
         <v>531</v>
@@ -55967,23 +55961,19 @@
         <v>304</v>
       </c>
       <c r="AE242" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="AF242" t="s">
-        <v>579</v>
-      </c>
-      <c r="AG242" s="1">
-        <v>1</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="AG242" s="1"/>
       <c r="AH242" s="1"/>
       <c r="AI242" s="1"/>
-      <c r="AJ242" s="1"/>
-      <c r="AK242" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL242" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ242" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK242" s="1"/>
+      <c r="AL242" s="1"/>
       <c r="AM242" s="1"/>
       <c r="AN242" s="1"/>
       <c r="AO242" s="1"/>
@@ -55999,10 +55989,10 @@
         <v>387</v>
       </c>
       <c r="AU242" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AV242" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW242" s="1"/>
       <c r="AX242" s="1">
@@ -56012,13 +56002,13 @@
         <v>1</v>
       </c>
       <c r="AZ242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA242" s="1">
         <v>1</v>
       </c>
       <c r="BB242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC242" s="1">
         <v>0</v>
@@ -56060,10 +56050,10 @@
         <v>0</v>
       </c>
       <c r="BP242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR242" s="1">
         <v>1</v>
@@ -56113,7 +56103,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>13370</v>
+        <v>13369</v>
       </c>
       <c r="C243" s="1">
         <v>114</v>
@@ -56134,10 +56124,10 @@
         <v>383</v>
       </c>
       <c r="I243" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J243" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K243" t="s">
         <v>412</v>
@@ -56173,10 +56163,10 @@
         <v>0</v>
       </c>
       <c r="V243" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="W243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X243" t="s">
         <v>531</v>
@@ -56197,22 +56187,22 @@
         <v>589</v>
       </c>
       <c r="AF243" t="s">
-        <v>619</v>
-      </c>
-      <c r="AG243" s="1"/>
+        <v>579</v>
+      </c>
+      <c r="AG243" s="1">
+        <v>1</v>
+      </c>
       <c r="AH243" s="1"/>
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
       <c r="AK243" s="1">
         <v>1</v>
       </c>
-      <c r="AL243" s="1"/>
-      <c r="AM243" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN243" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL243" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM243" s="1"/>
+      <c r="AN243" s="1"/>
       <c r="AO243" s="1"/>
       <c r="AP243" t="s">
         <v>394</v>
@@ -56223,28 +56213,26 @@
         <v>1</v>
       </c>
       <c r="AT243" t="s">
-        <v>697</v>
+        <v>387</v>
       </c>
       <c r="AU243" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV243" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW243" s="1">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AW243" s="1"/>
       <c r="AX243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB243" s="1">
         <v>0</v>
@@ -56289,16 +56277,16 @@
         <v>0</v>
       </c>
       <c r="BP243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT243" s="1">
         <v>0</v>
@@ -56342,7 +56330,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>13371</v>
+        <v>13370</v>
       </c>
       <c r="C244" s="1">
         <v>114</v>
@@ -56402,38 +56390,46 @@
         <v>0</v>
       </c>
       <c r="V244" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W244" s="1">
         <v>0</v>
       </c>
       <c r="X244" t="s">
-        <v>304</v>
+        <v>531</v>
       </c>
       <c r="Y244" s="1"/>
       <c r="Z244" s="1">
         <v>1</v>
       </c>
-      <c r="AA244" s="1"/>
+      <c r="AA244" s="1">
+        <v>1</v>
+      </c>
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
       <c r="AD244" t="s">
         <v>304</v>
       </c>
       <c r="AE244" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AF244" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="AG244" s="1"/>
       <c r="AH244" s="1"/>
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
-      <c r="AK244" s="1"/>
+      <c r="AK244" s="1">
+        <v>1</v>
+      </c>
       <c r="AL244" s="1"/>
-      <c r="AM244" s="1"/>
-      <c r="AN244" s="1"/>
+      <c r="AM244" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN244" s="1">
+        <v>1</v>
+      </c>
       <c r="AO244" s="1"/>
       <c r="AP244" t="s">
         <v>394</v>
@@ -56444,7 +56440,7 @@
         <v>1</v>
       </c>
       <c r="AT244" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AU244" s="1">
         <v>0</v>
@@ -56563,16 +56559,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>13604</v>
+        <v>13371</v>
       </c>
       <c r="C245" s="1">
         <v>114</v>
       </c>
       <c r="D245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E245" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F245" t="s">
         <v>308</v>
@@ -56584,10 +56580,10 @@
         <v>383</v>
       </c>
       <c r="I245" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J245" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K245" t="s">
         <v>412</v>
@@ -56623,19 +56619,19 @@
         <v>0</v>
       </c>
       <c r="V245" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W245" s="1">
         <v>0</v>
       </c>
       <c r="X245" t="s">
-        <v>521</v>
+        <v>304</v>
       </c>
       <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-      <c r="AA245" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z245" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
       <c r="AD245" t="s">
@@ -56652,13 +56648,9 @@
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
       <c r="AK245" s="1"/>
-      <c r="AL245" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL245" s="1"/>
       <c r="AM245" s="1"/>
-      <c r="AN245" s="1">
-        <v>1</v>
-      </c>
+      <c r="AN245" s="1"/>
       <c r="AO245" s="1"/>
       <c r="AP245" t="s">
         <v>394</v>
@@ -56666,23 +56658,25 @@
       <c r="AQ245" s="1"/>
       <c r="AR245" s="1"/>
       <c r="AS245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT245" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AU245" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV245" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW245" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW245" s="1">
+        <v>1</v>
+      </c>
       <c r="AX245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ245" s="1">
         <v>0</v>
@@ -56739,10 +56733,10 @@
         <v>0</v>
       </c>
       <c r="BR245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT245" s="1">
         <v>0</v>
@@ -56769,27 +56763,33 @@
         <v>0</v>
       </c>
       <c r="CB245" t="s">
-        <v>748</v>
-      </c>
-      <c r="CC245" s="1"/>
-      <c r="CD245" s="1"/>
-      <c r="CE245" s="1"/>
+        <v>744</v>
+      </c>
+      <c r="CC245" s="1">
+        <v>12</v>
+      </c>
+      <c r="CD245" s="1">
+        <v>99</v>
+      </c>
+      <c r="CE245" s="1">
+        <v>12099</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>13605</v>
+        <v>13604</v>
       </c>
       <c r="C246" s="1">
         <v>114</v>
       </c>
       <c r="D246" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E246" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F246" t="s">
         <v>308</v>
@@ -56798,7 +56798,7 @@
         <v>310</v>
       </c>
       <c r="H246" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I246" t="s">
         <v>404</v>
@@ -56840,7 +56840,7 @@
         <v>0</v>
       </c>
       <c r="V246" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W246" s="1">
         <v>0</v>
@@ -56869,37 +56869,37 @@
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
       <c r="AK246" s="1"/>
-      <c r="AL246" s="1"/>
+      <c r="AL246" s="1">
+        <v>1</v>
+      </c>
       <c r="AM246" s="1"/>
-      <c r="AN246" s="1"/>
+      <c r="AN246" s="1">
+        <v>1</v>
+      </c>
       <c r="AO246" s="1"/>
       <c r="AP246" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ246" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ246" s="1"/>
       <c r="AR246" s="1"/>
       <c r="AS246" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT246" t="s">
         <v>700</v>
       </c>
       <c r="AU246" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV246" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW246" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AW246" s="1"/>
       <c r="AX246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ246" s="1">
         <v>0</v>
@@ -56956,10 +56956,10 @@
         <v>0</v>
       </c>
       <c r="BR246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT246" s="1">
         <v>0</v>
@@ -56986,24 +56986,18 @@
         <v>0</v>
       </c>
       <c r="CB246" t="s">
-        <v>744</v>
-      </c>
-      <c r="CC246" s="1">
-        <v>12</v>
-      </c>
-      <c r="CD246" s="1">
-        <v>99</v>
-      </c>
-      <c r="CE246" s="1">
-        <v>12099</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="CC246" s="1"/>
+      <c r="CD246" s="1"/>
+      <c r="CE246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>13606</v>
+        <v>13605</v>
       </c>
       <c r="C247" s="1">
         <v>114</v>
@@ -57021,13 +57015,13 @@
         <v>310</v>
       </c>
       <c r="H247" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I247" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J247" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K247" t="s">
         <v>412</v>
@@ -57063,13 +57057,13 @@
         <v>0</v>
       </c>
       <c r="V247" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="W247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X247" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
@@ -57082,30 +57076,26 @@
         <v>304</v>
       </c>
       <c r="AE247" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="AF247" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="AG247" s="1"/>
       <c r="AH247" s="1"/>
       <c r="AI247" s="1"/>
-      <c r="AJ247" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK247" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ247" s="1"/>
+      <c r="AK247" s="1"/>
       <c r="AL247" s="1"/>
       <c r="AM247" s="1"/>
-      <c r="AN247" s="1">
-        <v>1</v>
-      </c>
+      <c r="AN247" s="1"/>
       <c r="AO247" s="1"/>
       <c r="AP247" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ247" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ247" s="1">
+        <v>0</v>
+      </c>
       <c r="AR247" s="1"/>
       <c r="AS247" s="1">
         <v>1</v>
@@ -57114,23 +57104,25 @@
         <v>701</v>
       </c>
       <c r="AU247" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV247" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW247" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW247" s="1">
+        <v>1</v>
+      </c>
       <c r="AX247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB247" s="1">
         <v>0</v>
@@ -57175,16 +57167,16 @@
         <v>0</v>
       </c>
       <c r="BP247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ247" s="1">
         <v>0</v>
       </c>
       <c r="BR247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT247" s="1">
         <v>0</v>
@@ -57228,7 +57220,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>13607</v>
+        <v>13606</v>
       </c>
       <c r="C248" s="1">
         <v>114</v>
@@ -57249,10 +57241,10 @@
         <v>383</v>
       </c>
       <c r="I248" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J248" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K248" t="s">
         <v>412</v>
@@ -57288,13 +57280,13 @@
         <v>0</v>
       </c>
       <c r="V248" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="W248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X248" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
@@ -57307,21 +57299,25 @@
         <v>304</v>
       </c>
       <c r="AE248" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AF248" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="AG248" s="1"/>
       <c r="AH248" s="1"/>
       <c r="AI248" s="1"/>
-      <c r="AJ248" s="1"/>
+      <c r="AJ248" s="1">
+        <v>1</v>
+      </c>
       <c r="AK248" s="1">
         <v>1</v>
       </c>
       <c r="AL248" s="1"/>
       <c r="AM248" s="1"/>
-      <c r="AN248" s="1"/>
+      <c r="AN248" s="1">
+        <v>1</v>
+      </c>
       <c r="AO248" s="1"/>
       <c r="AP248" t="s">
         <v>394</v>
@@ -57332,13 +57328,13 @@
         <v>1</v>
       </c>
       <c r="AT248" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AU248" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AV248" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW248" s="1"/>
       <c r="AX248" s="1">
@@ -57348,10 +57344,10 @@
         <v>1</v>
       </c>
       <c r="AZ248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB248" s="1">
         <v>0</v>
@@ -57360,7 +57356,7 @@
         <v>0</v>
       </c>
       <c r="BD248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE248" s="1">
         <v>0</v>
@@ -57396,7 +57392,7 @@
         <v>0</v>
       </c>
       <c r="BP248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ248" s="1">
         <v>0</v>
@@ -57449,7 +57445,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>13608</v>
+        <v>13607</v>
       </c>
       <c r="C249" s="1">
         <v>114</v>
@@ -57470,10 +57466,10 @@
         <v>383</v>
       </c>
       <c r="I249" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J249" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K249" t="s">
         <v>412</v>
@@ -57509,18 +57505,16 @@
         <v>0</v>
       </c>
       <c r="V249" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="W249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X249" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y249" s="1"/>
-      <c r="Z249" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z249" s="1"/>
       <c r="AA249" s="1">
         <v>1</v>
       </c>
@@ -57530,27 +57524,21 @@
         <v>304</v>
       </c>
       <c r="AE249" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="AF249" t="s">
-        <v>579</v>
-      </c>
-      <c r="AG249" s="1">
-        <v>1</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="AG249" s="1"/>
       <c r="AH249" s="1"/>
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
       <c r="AK249" s="1">
         <v>1</v>
       </c>
-      <c r="AL249" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL249" s="1"/>
       <c r="AM249" s="1"/>
-      <c r="AN249" s="1">
-        <v>1</v>
-      </c>
+      <c r="AN249" s="1"/>
       <c r="AO249" s="1"/>
       <c r="AP249" t="s">
         <v>394</v>
@@ -57561,13 +57549,13 @@
         <v>1</v>
       </c>
       <c r="AT249" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AU249" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV249" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW249" s="1"/>
       <c r="AX249" s="1">
@@ -57577,10 +57565,10 @@
         <v>1</v>
       </c>
       <c r="AZ249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB249" s="1">
         <v>0</v>
@@ -57589,7 +57577,7 @@
         <v>0</v>
       </c>
       <c r="BD249" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE249" s="1">
         <v>0</v>
@@ -57625,7 +57613,7 @@
         <v>0</v>
       </c>
       <c r="BP249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ249" s="1">
         <v>0</v>
@@ -57678,7 +57666,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>13614</v>
+        <v>13608</v>
       </c>
       <c r="C250" s="1">
         <v>114</v>
@@ -57696,13 +57684,13 @@
         <v>310</v>
       </c>
       <c r="H250" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I250" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J250" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K250" t="s">
         <v>412</v>
@@ -57738,16 +57726,18 @@
         <v>0</v>
       </c>
       <c r="V250" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="W250" s="1">
         <v>1</v>
       </c>
       <c r="X250" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Y250" s="1"/>
-      <c r="Z250" s="1"/>
+      <c r="Z250" s="1">
+        <v>1</v>
+      </c>
       <c r="AA250" s="1">
         <v>1</v>
       </c>
@@ -57757,23 +57747,27 @@
         <v>304</v>
       </c>
       <c r="AE250" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="AF250" t="s">
         <v>579</v>
       </c>
-      <c r="AG250" s="1"/>
+      <c r="AG250" s="1">
+        <v>1</v>
+      </c>
       <c r="AH250" s="1"/>
       <c r="AI250" s="1"/>
-      <c r="AJ250" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ250" s="1"/>
       <c r="AK250" s="1">
         <v>1</v>
       </c>
-      <c r="AL250" s="1"/>
+      <c r="AL250" s="1">
+        <v>1</v>
+      </c>
       <c r="AM250" s="1"/>
-      <c r="AN250" s="1"/>
+      <c r="AN250" s="1">
+        <v>1</v>
+      </c>
       <c r="AO250" s="1"/>
       <c r="AP250" t="s">
         <v>394</v>
@@ -57784,13 +57778,13 @@
         <v>1</v>
       </c>
       <c r="AT250" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="AU250" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV250" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW250" s="1"/>
       <c r="AX250" s="1">
@@ -57800,10 +57794,10 @@
         <v>1</v>
       </c>
       <c r="AZ250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB250" s="1">
         <v>0</v>
@@ -57848,7 +57842,7 @@
         <v>0</v>
       </c>
       <c r="BP250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ250" s="1">
         <v>0</v>
@@ -57901,16 +57895,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>13615</v>
+        <v>13614</v>
       </c>
       <c r="C251" s="1">
         <v>114</v>
       </c>
       <c r="D251" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E251" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F251" t="s">
         <v>308</v>
@@ -57919,13 +57913,13 @@
         <v>310</v>
       </c>
       <c r="H251" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I251" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J251" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K251" t="s">
         <v>412</v>
@@ -57961,13 +57955,13 @@
         <v>0</v>
       </c>
       <c r="V251" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="W251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X251" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
@@ -57980,16 +57974,20 @@
         <v>304</v>
       </c>
       <c r="AE251" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="AF251" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AG251" s="1"/>
       <c r="AH251" s="1"/>
       <c r="AI251" s="1"/>
-      <c r="AJ251" s="1"/>
-      <c r="AK251" s="1"/>
+      <c r="AJ251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK251" s="1">
+        <v>1</v>
+      </c>
       <c r="AL251" s="1"/>
       <c r="AM251" s="1"/>
       <c r="AN251" s="1"/>
@@ -58009,7 +58007,7 @@
         <v>5</v>
       </c>
       <c r="AV251" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW251" s="1"/>
       <c r="AX251" s="1">
@@ -58040,7 +58038,7 @@
         <v>0</v>
       </c>
       <c r="BG251" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH251" s="1">
         <v>0</v>
@@ -58103,16 +58101,16 @@
         <v>0</v>
       </c>
       <c r="CB251" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="CC251" s="1">
         <v>12</v>
       </c>
       <c r="CD251" s="1">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="CE251" s="1">
-        <v>12011</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="252">
@@ -58120,7 +58118,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>13616</v>
+        <v>13615</v>
       </c>
       <c r="C252" s="1">
         <v>114</v>
@@ -58180,7 +58178,7 @@
         <v>0</v>
       </c>
       <c r="V252" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W252" s="1">
         <v>0</v>
@@ -58199,21 +58197,17 @@
         <v>304</v>
       </c>
       <c r="AE252" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AF252" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="AG252" s="1"/>
       <c r="AH252" s="1"/>
       <c r="AI252" s="1"/>
-      <c r="AJ252" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ252" s="1"/>
       <c r="AK252" s="1"/>
-      <c r="AL252" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL252" s="1"/>
       <c r="AM252" s="1"/>
       <c r="AN252" s="1"/>
       <c r="AO252" s="1"/>
@@ -58226,7 +58220,7 @@
         <v>1</v>
       </c>
       <c r="AT252" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AU252" s="1">
         <v>5</v>
@@ -58343,16 +58337,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>13617</v>
+        <v>13616</v>
       </c>
       <c r="C253" s="1">
         <v>114</v>
       </c>
       <c r="D253" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E253" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F253" t="s">
         <v>308</v>
@@ -58361,37 +58355,37 @@
         <v>310</v>
       </c>
       <c r="H253" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I253" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="J253" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="K253" t="s">
         <v>412</v>
       </c>
       <c r="L253" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="M253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O253" s="1">
         <v>0</v>
       </c>
       <c r="P253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q253" s="1">
         <v>0</v>
       </c>
       <c r="R253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S253" s="1">
         <v>0</v>
@@ -58403,13 +58397,13 @@
         <v>0</v>
       </c>
       <c r="V253" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="W253" s="1">
         <v>0</v>
       </c>
       <c r="X253" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
@@ -58422,17 +58416,21 @@
         <v>304</v>
       </c>
       <c r="AE253" t="s">
-        <v>304</v>
+        <v>621</v>
       </c>
       <c r="AF253" t="s">
-        <v>304</v>
+        <v>619</v>
       </c>
       <c r="AG253" s="1"/>
       <c r="AH253" s="1"/>
       <c r="AI253" s="1"/>
-      <c r="AJ253" s="1"/>
+      <c r="AJ253" s="1">
+        <v>1</v>
+      </c>
       <c r="AK253" s="1"/>
-      <c r="AL253" s="1"/>
+      <c r="AL253" s="1">
+        <v>1</v>
+      </c>
       <c r="AM253" s="1"/>
       <c r="AN253" s="1"/>
       <c r="AO253" s="1"/>
@@ -58445,13 +58443,13 @@
         <v>1</v>
       </c>
       <c r="AT253" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AU253" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV253" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW253" s="1"/>
       <c r="AX253" s="1">
@@ -58470,19 +58468,19 @@
         <v>0</v>
       </c>
       <c r="BC253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH253" s="1">
         <v>0</v>
@@ -58545,16 +58543,16 @@
         <v>0</v>
       </c>
       <c r="CB253" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="CC253" s="1">
         <v>12</v>
       </c>
       <c r="CD253" s="1">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="CE253" s="1">
-        <v>12099</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="254">
@@ -58562,7 +58560,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>13618</v>
+        <v>13617</v>
       </c>
       <c r="C254" s="1">
         <v>114</v>
@@ -58580,19 +58578,19 @@
         <v>310</v>
       </c>
       <c r="H254" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I254" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="J254" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K254" t="s">
         <v>412</v>
       </c>
       <c r="L254" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M254" s="1">
         <v>0</v>
@@ -58610,10 +58608,10 @@
         <v>0</v>
       </c>
       <c r="R254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T254" s="1">
         <v>0</v>
@@ -58622,66 +58620,62 @@
         <v>0</v>
       </c>
       <c r="V254" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="W254" s="1">
         <v>0</v>
       </c>
       <c r="X254" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
-      <c r="AA254" s="1"/>
+      <c r="AA254" s="1">
+        <v>1</v>
+      </c>
       <c r="AB254" s="1"/>
-      <c r="AC254" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC254" s="1"/>
       <c r="AD254" t="s">
         <v>304</v>
       </c>
       <c r="AE254" t="s">
-        <v>617</v>
+        <v>304</v>
       </c>
       <c r="AF254" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="AG254" s="1"/>
       <c r="AH254" s="1"/>
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
-      <c r="AK254" s="1">
-        <v>1</v>
-      </c>
+      <c r="AK254" s="1"/>
       <c r="AL254" s="1"/>
       <c r="AM254" s="1"/>
       <c r="AN254" s="1"/>
       <c r="AO254" s="1"/>
       <c r="AP254" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ254" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ254" s="1"/>
       <c r="AR254" s="1"/>
       <c r="AS254" s="1">
         <v>1</v>
       </c>
       <c r="AT254" t="s">
-        <v>390</v>
+        <v>701</v>
       </c>
       <c r="AU254" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV254" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW254" s="1"/>
       <c r="AX254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ254" s="1">
         <v>0</v>
@@ -58693,10 +58687,10 @@
         <v>0</v>
       </c>
       <c r="BC254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE254" s="1">
         <v>1</v>
@@ -58738,10 +58732,10 @@
         <v>0</v>
       </c>
       <c r="BR254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT254" s="1">
         <v>0</v>
@@ -58785,7 +58779,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>13644</v>
+        <v>13618</v>
       </c>
       <c r="C255" s="1">
         <v>114</v>
@@ -58803,7 +58797,7 @@
         <v>310</v>
       </c>
       <c r="H255" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I255" t="s">
         <v>404</v>
@@ -58815,19 +58809,19 @@
         <v>412</v>
       </c>
       <c r="L255" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O255" s="1">
         <v>0</v>
       </c>
       <c r="P255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q255" s="1">
         <v>0</v>
@@ -58836,7 +58830,7 @@
         <v>0</v>
       </c>
       <c r="S255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T255" s="1">
         <v>0</v>
@@ -58845,36 +58839,34 @@
         <v>0</v>
       </c>
       <c r="V255" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="W255" s="1">
         <v>0</v>
       </c>
       <c r="X255" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
-      <c r="AA255" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
-      <c r="AC255" s="1"/>
+      <c r="AC255" s="1">
+        <v>1</v>
+      </c>
       <c r="AD255" t="s">
         <v>304</v>
       </c>
       <c r="AE255" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="AF255" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="AG255" s="1"/>
       <c r="AH255" s="1"/>
       <c r="AI255" s="1"/>
-      <c r="AJ255" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ255" s="1"/>
       <c r="AK255" s="1">
         <v>1</v>
       </c>
@@ -58893,17 +58885,15 @@
         <v>1</v>
       </c>
       <c r="AT255" t="s">
-        <v>701</v>
+        <v>390</v>
       </c>
       <c r="AU255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV255" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW255" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW255" s="1"/>
       <c r="AX255" s="1">
         <v>0</v>
       </c>
@@ -58926,10 +58916,10 @@
         <v>0</v>
       </c>
       <c r="BE255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG255" s="1">
         <v>0</v>
@@ -59012,13 +59002,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>13645</v>
+        <v>13644</v>
       </c>
       <c r="C256" s="1">
         <v>114</v>
       </c>
       <c r="D256" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E256" t="s">
         <v>286</v>
@@ -59072,13 +59062,13 @@
         <v>0</v>
       </c>
       <c r="V256" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="W256" s="1">
         <v>0</v>
       </c>
       <c r="X256" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
@@ -59088,22 +59078,24 @@
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
       <c r="AD256" t="s">
-        <v>575</v>
+        <v>304</v>
       </c>
       <c r="AE256" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="AF256" t="s">
-        <v>304</v>
+        <v>619</v>
       </c>
       <c r="AG256" s="1"/>
       <c r="AH256" s="1"/>
       <c r="AI256" s="1"/>
-      <c r="AJ256" s="1"/>
-      <c r="AK256" s="1"/>
-      <c r="AL256" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ256" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK256" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL256" s="1"/>
       <c r="AM256" s="1"/>
       <c r="AN256" s="1"/>
       <c r="AO256" s="1"/>
@@ -59118,7 +59110,7 @@
         <v>1</v>
       </c>
       <c r="AT256" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AU256" s="1">
         <v>0</v>
@@ -59237,13 +59229,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>13646</v>
+        <v>13645</v>
       </c>
       <c r="C257" s="1">
         <v>114</v>
       </c>
       <c r="D257" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E257" t="s">
         <v>286</v>
@@ -59297,13 +59289,13 @@
         <v>0</v>
       </c>
       <c r="V257" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="W257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X257" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
@@ -59313,22 +59305,22 @@
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
       <c r="AD257" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>578</v>
+      </c>
+      <c r="AF257" t="s">
         <v>304</v>
       </c>
-      <c r="AE257" t="s">
-        <v>598</v>
-      </c>
-      <c r="AF257" t="s">
-        <v>598</v>
-      </c>
-      <c r="AG257" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG257" s="1"/>
       <c r="AH257" s="1"/>
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
       <c r="AK257" s="1"/>
-      <c r="AL257" s="1"/>
+      <c r="AL257" s="1">
+        <v>1</v>
+      </c>
       <c r="AM257" s="1"/>
       <c r="AN257" s="1"/>
       <c r="AO257" s="1"/>
@@ -59343,7 +59335,7 @@
         <v>1</v>
       </c>
       <c r="AT257" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AU257" s="1">
         <v>0</v>
@@ -59462,7 +59454,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>13647</v>
+        <v>13646</v>
       </c>
       <c r="C258" s="1">
         <v>114</v>
@@ -59480,7 +59472,7 @@
         <v>310</v>
       </c>
       <c r="H258" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I258" t="s">
         <v>404</v>
@@ -59522,18 +59514,16 @@
         <v>0</v>
       </c>
       <c r="V258" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="W258" s="1">
         <v>1</v>
       </c>
       <c r="X258" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Y258" s="1"/>
-      <c r="Z258" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z258" s="1"/>
       <c r="AA258" s="1">
         <v>1</v>
       </c>
@@ -59543,45 +59533,49 @@
         <v>304</v>
       </c>
       <c r="AE258" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="AF258" t="s">
-        <v>619</v>
-      </c>
-      <c r="AG258" s="1"/>
+        <v>598</v>
+      </c>
+      <c r="AG258" s="1">
+        <v>1</v>
+      </c>
       <c r="AH258" s="1"/>
       <c r="AI258" s="1"/>
-      <c r="AJ258" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ258" s="1"/>
       <c r="AK258" s="1"/>
       <c r="AL258" s="1"/>
       <c r="AM258" s="1"/>
       <c r="AN258" s="1"/>
       <c r="AO258" s="1"/>
       <c r="AP258" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ258" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ258" s="1">
+        <v>0</v>
+      </c>
       <c r="AR258" s="1"/>
       <c r="AS258" s="1">
         <v>1</v>
       </c>
       <c r="AT258" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AU258" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV258" s="1">
-        <v>3</v>
-      </c>
-      <c r="AW258" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW258" s="1">
+        <v>1</v>
+      </c>
       <c r="AX258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ258" s="1">
         <v>0</v>
@@ -59599,10 +59593,10 @@
         <v>0</v>
       </c>
       <c r="BE258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG258" s="1">
         <v>0</v>
@@ -59638,10 +59632,10 @@
         <v>0</v>
       </c>
       <c r="BR258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT258" s="1">
         <v>0</v>
@@ -59685,7 +59679,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>13648</v>
+        <v>13647</v>
       </c>
       <c r="C259" s="1">
         <v>114</v>
@@ -59706,10 +59700,10 @@
         <v>385</v>
       </c>
       <c r="I259" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J259" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K259" t="s">
         <v>412</v>
@@ -59745,7 +59739,7 @@
         <v>0</v>
       </c>
       <c r="V259" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="W259" s="1">
         <v>1</v>
@@ -59766,16 +59760,14 @@
         <v>304</v>
       </c>
       <c r="AE259" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AF259" t="s">
         <v>619</v>
       </c>
       <c r="AG259" s="1"/>
       <c r="AH259" s="1"/>
-      <c r="AI259" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI259" s="1"/>
       <c r="AJ259" s="1">
         <v>1</v>
       </c>
@@ -59793,13 +59785,13 @@
         <v>1</v>
       </c>
       <c r="AT259" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AU259" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV259" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW259" s="1"/>
       <c r="AX259" s="1">
@@ -59824,10 +59816,10 @@
         <v>0</v>
       </c>
       <c r="BE259" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF259" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG259" s="1">
         <v>0</v>
@@ -59910,7 +59902,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>13847</v>
+        <v>13648</v>
       </c>
       <c r="C260" s="1">
         <v>114</v>
@@ -59919,7 +59911,7 @@
         <v>284</v>
       </c>
       <c r="E260" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F260" t="s">
         <v>308</v>
@@ -59928,13 +59920,13 @@
         <v>310</v>
       </c>
       <c r="H260" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I260" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J260" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K260" t="s">
         <v>412</v>
@@ -59970,13 +59962,13 @@
         <v>0</v>
       </c>
       <c r="V260" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W260" s="1">
         <v>1</v>
       </c>
       <c r="X260" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y260" s="1"/>
       <c r="Z260" s="1">
@@ -59991,15 +59983,19 @@
         <v>304</v>
       </c>
       <c r="AE260" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AF260" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="AG260" s="1"/>
       <c r="AH260" s="1"/>
-      <c r="AI260" s="1"/>
-      <c r="AJ260" s="1"/>
+      <c r="AI260" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ260" s="1">
+        <v>1</v>
+      </c>
       <c r="AK260" s="1"/>
       <c r="AL260" s="1"/>
       <c r="AM260" s="1"/>
@@ -60011,16 +60007,16 @@
       <c r="AQ260" s="1"/>
       <c r="AR260" s="1"/>
       <c r="AS260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT260" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AU260" s="1">
         <v>5</v>
       </c>
       <c r="AV260" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW260" s="1"/>
       <c r="AX260" s="1">
@@ -60114,24 +60110,30 @@
         <v>0</v>
       </c>
       <c r="CB260" t="s">
-        <v>748</v>
-      </c>
-      <c r="CC260" s="1"/>
-      <c r="CD260" s="1"/>
-      <c r="CE260" s="1"/>
+        <v>744</v>
+      </c>
+      <c r="CC260" s="1">
+        <v>12</v>
+      </c>
+      <c r="CD260" s="1">
+        <v>99</v>
+      </c>
+      <c r="CE260" s="1">
+        <v>12099</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>13848</v>
+        <v>13847</v>
       </c>
       <c r="C261" s="1">
         <v>114</v>
       </c>
       <c r="D261" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E261" t="s">
         <v>304</v>
@@ -60146,22 +60148,22 @@
         <v>386</v>
       </c>
       <c r="I261" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J261" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K261" t="s">
         <v>412</v>
       </c>
       <c r="L261" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="M261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O261" s="1">
         <v>0</v>
@@ -60170,7 +60172,7 @@
         <v>0</v>
       </c>
       <c r="Q261" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R261" s="1">
         <v>0</v>
@@ -60185,13 +60187,13 @@
         <v>0</v>
       </c>
       <c r="V261" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="W261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X261" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="Y261" s="1"/>
       <c r="Z261" s="1">
@@ -60206,10 +60208,10 @@
         <v>304</v>
       </c>
       <c r="AE261" t="s">
-        <v>304</v>
+        <v>615</v>
       </c>
       <c r="AF261" t="s">
-        <v>304</v>
+        <v>579</v>
       </c>
       <c r="AG261" s="1"/>
       <c r="AH261" s="1"/>
@@ -60229,20 +60231,20 @@
         <v>0</v>
       </c>
       <c r="AT261" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AU261" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV261" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW261" s="1"/>
       <c r="AX261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ261" s="1">
         <v>0</v>
@@ -60340,13 +60342,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>13849</v>
+        <v>13848</v>
       </c>
       <c r="C262" s="1">
         <v>114</v>
       </c>
       <c r="D262" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E262" t="s">
         <v>304</v>
@@ -60358,25 +60360,25 @@
         <v>310</v>
       </c>
       <c r="H262" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I262" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J262" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K262" t="s">
         <v>412</v>
       </c>
       <c r="L262" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O262" s="1">
         <v>0</v>
@@ -60385,7 +60387,7 @@
         <v>0</v>
       </c>
       <c r="Q262" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R262" s="1">
         <v>0</v>
@@ -60400,13 +60402,13 @@
         <v>0</v>
       </c>
       <c r="V262" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="W262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X262" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="Y262" s="1"/>
       <c r="Z262" s="1">
@@ -60426,14 +60428,10 @@
       <c r="AF262" t="s">
         <v>304</v>
       </c>
-      <c r="AG262" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG262" s="1"/>
       <c r="AH262" s="1"/>
       <c r="AI262" s="1"/>
-      <c r="AJ262" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ262" s="1"/>
       <c r="AK262" s="1"/>
       <c r="AL262" s="1"/>
       <c r="AM262" s="1"/>
@@ -60451,26 +60449,26 @@
         <v>704</v>
       </c>
       <c r="AU262" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV262" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW262" s="1"/>
       <c r="AX262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ262" s="1">
         <v>0</v>
       </c>
       <c r="BA262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC262" s="1">
         <v>0</v>
@@ -60512,7 +60510,7 @@
         <v>0</v>
       </c>
       <c r="BP262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ262" s="1">
         <v>0</v>
@@ -60559,7 +60557,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>13850</v>
+        <v>13849</v>
       </c>
       <c r="C263" s="1">
         <v>114</v>
@@ -60640,7 +60638,7 @@
         <v>304</v>
       </c>
       <c r="AE263" t="s">
-        <v>647</v>
+        <v>304</v>
       </c>
       <c r="AF263" t="s">
         <v>304</v>
@@ -60670,10 +60668,10 @@
         <v>705</v>
       </c>
       <c r="AU263" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV263" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW263" s="1"/>
       <c r="AX263" s="1">
@@ -60686,10 +60684,10 @@
         <v>0</v>
       </c>
       <c r="BA263" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB263" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC263" s="1">
         <v>0</v>
@@ -60704,7 +60702,7 @@
         <v>0</v>
       </c>
       <c r="BG263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH263" s="1">
         <v>0</v>
@@ -60731,7 +60729,7 @@
         <v>0</v>
       </c>
       <c r="BP263" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ263" s="1">
         <v>0</v>
@@ -60778,7 +60776,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>13851</v>
+        <v>13850</v>
       </c>
       <c r="C264" s="1">
         <v>114</v>
@@ -60838,16 +60836,18 @@
         <v>0</v>
       </c>
       <c r="V264" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="W264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X264" t="s">
         <v>531</v>
       </c>
       <c r="Y264" s="1"/>
-      <c r="Z264" s="1"/>
+      <c r="Z264" s="1">
+        <v>1</v>
+      </c>
       <c r="AA264" s="1">
         <v>1</v>
       </c>
@@ -60860,12 +60860,16 @@
         <v>648</v>
       </c>
       <c r="AF264" t="s">
-        <v>619</v>
-      </c>
-      <c r="AG264" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="AG264" s="1">
+        <v>1</v>
+      </c>
       <c r="AH264" s="1"/>
       <c r="AI264" s="1"/>
-      <c r="AJ264" s="1"/>
+      <c r="AJ264" s="1">
+        <v>1</v>
+      </c>
       <c r="AK264" s="1"/>
       <c r="AL264" s="1"/>
       <c r="AM264" s="1"/>
@@ -60880,22 +60884,20 @@
         <v>0</v>
       </c>
       <c r="AT264" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AU264" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV264" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW264" s="1">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AW264" s="1"/>
       <c r="AX264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ264" s="1">
         <v>0</v>
@@ -60919,7 +60921,7 @@
         <v>0</v>
       </c>
       <c r="BG264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH264" s="1">
         <v>0</v>
@@ -60952,10 +60954,10 @@
         <v>0</v>
       </c>
       <c r="BR264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT264" s="1">
         <v>0</v>
@@ -60993,13 +60995,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>13874</v>
+        <v>13851</v>
       </c>
       <c r="C265" s="1">
         <v>114</v>
       </c>
       <c r="D265" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E265" t="s">
         <v>304</v>
@@ -61011,7 +61013,7 @@
         <v>310</v>
       </c>
       <c r="H265" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I265" t="s">
         <v>404</v>
@@ -61053,13 +61055,13 @@
         <v>0</v>
       </c>
       <c r="V265" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="W265" s="1">
         <v>0</v>
       </c>
       <c r="X265" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
@@ -61072,7 +61074,7 @@
         <v>304</v>
       </c>
       <c r="AE265" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="AF265" t="s">
         <v>619</v>
@@ -61080,13 +61082,9 @@
       <c r="AG265" s="1"/>
       <c r="AH265" s="1"/>
       <c r="AI265" s="1"/>
-      <c r="AJ265" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ265" s="1"/>
       <c r="AK265" s="1"/>
-      <c r="AL265" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL265" s="1"/>
       <c r="AM265" s="1"/>
       <c r="AN265" s="1"/>
       <c r="AO265" s="1"/>
@@ -61102,17 +61100,19 @@
         <v>706</v>
       </c>
       <c r="AU265" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV265" s="1">
-        <v>3</v>
-      </c>
-      <c r="AW265" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW265" s="1">
+        <v>1</v>
+      </c>
       <c r="AX265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ265" s="1">
         <v>0</v>
@@ -61169,10 +61169,10 @@
         <v>0</v>
       </c>
       <c r="BR265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT265" s="1">
         <v>0</v>
@@ -61210,13 +61210,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>13875</v>
+        <v>13874</v>
       </c>
       <c r="C266" s="1">
         <v>114</v>
       </c>
       <c r="D266" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E266" t="s">
         <v>304</v>
@@ -61228,7 +61228,7 @@
         <v>310</v>
       </c>
       <c r="H266" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I266" t="s">
         <v>404</v>
@@ -61276,12 +61276,10 @@
         <v>0</v>
       </c>
       <c r="X266" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Y266" s="1"/>
-      <c r="Z266" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z266" s="1"/>
       <c r="AA266" s="1">
         <v>1</v>
       </c>
@@ -61291,19 +61289,21 @@
         <v>304</v>
       </c>
       <c r="AE266" t="s">
-        <v>304</v>
+        <v>578</v>
       </c>
       <c r="AF266" t="s">
         <v>619</v>
       </c>
-      <c r="AG266" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG266" s="1"/>
       <c r="AH266" s="1"/>
       <c r="AI266" s="1"/>
-      <c r="AJ266" s="1"/>
+      <c r="AJ266" s="1">
+        <v>1</v>
+      </c>
       <c r="AK266" s="1"/>
-      <c r="AL266" s="1"/>
+      <c r="AL266" s="1">
+        <v>1</v>
+      </c>
       <c r="AM266" s="1"/>
       <c r="AN266" s="1"/>
       <c r="AO266" s="1"/>
@@ -61316,13 +61316,13 @@
         <v>0</v>
       </c>
       <c r="AT266" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AU266" s="1">
         <v>6</v>
       </c>
       <c r="AV266" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW266" s="1"/>
       <c r="AX266" s="1">
@@ -61332,10 +61332,10 @@
         <v>1</v>
       </c>
       <c r="AZ266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB266" s="1">
         <v>0</v>
@@ -61353,7 +61353,7 @@
         <v>0</v>
       </c>
       <c r="BG266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH266" s="1">
         <v>0</v>
@@ -61380,7 +61380,7 @@
         <v>0</v>
       </c>
       <c r="BP266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ266" s="1">
         <v>0</v>
@@ -61427,7 +61427,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>13876</v>
+        <v>13875</v>
       </c>
       <c r="C267" s="1">
         <v>114</v>
@@ -61445,7 +61445,7 @@
         <v>310</v>
       </c>
       <c r="H267" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I267" t="s">
         <v>404</v>
@@ -61493,7 +61493,7 @@
         <v>0</v>
       </c>
       <c r="X267" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1">
@@ -61508,10 +61508,10 @@
         <v>304</v>
       </c>
       <c r="AE267" t="s">
-        <v>613</v>
+        <v>304</v>
       </c>
       <c r="AF267" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="AG267" s="1">
         <v>1</v>
@@ -61520,9 +61520,7 @@
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
       <c r="AK267" s="1"/>
-      <c r="AL267" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL267" s="1"/>
       <c r="AM267" s="1"/>
       <c r="AN267" s="1"/>
       <c r="AO267" s="1"/>
@@ -61535,10 +61533,10 @@
         <v>0</v>
       </c>
       <c r="AT267" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AU267" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV267" s="1">
         <v>4</v>
@@ -61551,10 +61549,10 @@
         <v>1</v>
       </c>
       <c r="AZ267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB267" s="1">
         <v>0</v>
@@ -61572,7 +61570,7 @@
         <v>0</v>
       </c>
       <c r="BG267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH267" s="1">
         <v>0</v>
@@ -61602,7 +61600,7 @@
         <v>1</v>
       </c>
       <c r="BQ267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR267" s="1">
         <v>1</v>
@@ -61646,7 +61644,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>13877</v>
+        <v>13876</v>
       </c>
       <c r="C268" s="1">
         <v>114</v>
@@ -61664,7 +61662,7 @@
         <v>310</v>
       </c>
       <c r="H268" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I268" t="s">
         <v>404</v>
@@ -61712,7 +61710,7 @@
         <v>0</v>
       </c>
       <c r="X268" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y268" s="1"/>
       <c r="Z268" s="1">
@@ -61727,37 +61725,37 @@
         <v>304</v>
       </c>
       <c r="AE268" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="AF268" t="s">
         <v>598</v>
       </c>
-      <c r="AG268" s="1"/>
+      <c r="AG268" s="1">
+        <v>1</v>
+      </c>
       <c r="AH268" s="1"/>
       <c r="AI268" s="1"/>
-      <c r="AJ268" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ268" s="1"/>
       <c r="AK268" s="1"/>
-      <c r="AL268" s="1"/>
+      <c r="AL268" s="1">
+        <v>1</v>
+      </c>
       <c r="AM268" s="1"/>
       <c r="AN268" s="1"/>
       <c r="AO268" s="1"/>
       <c r="AP268" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ268" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ268" s="1"/>
       <c r="AR268" s="1"/>
       <c r="AS268" s="1">
         <v>0</v>
       </c>
       <c r="AT268" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AU268" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV268" s="1">
         <v>4</v>
@@ -61818,10 +61816,10 @@
         <v>0</v>
       </c>
       <c r="BP268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR268" s="1">
         <v>1</v>
@@ -61865,7 +61863,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>13878</v>
+        <v>13877</v>
       </c>
       <c r="C269" s="1">
         <v>114</v>
@@ -61895,16 +61893,16 @@
         <v>412</v>
       </c>
       <c r="L269" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P269" s="1">
         <v>0</v>
@@ -61925,10 +61923,10 @@
         <v>0</v>
       </c>
       <c r="V269" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="W269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X269" t="s">
         <v>531</v>
@@ -61946,10 +61944,10 @@
         <v>304</v>
       </c>
       <c r="AE269" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="AF269" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="AG269" s="1"/>
       <c r="AH269" s="1"/>
@@ -61963,23 +61961,23 @@
       <c r="AN269" s="1"/>
       <c r="AO269" s="1"/>
       <c r="AP269" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AQ269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR269" s="1"/>
       <c r="AS269" s="1">
         <v>0</v>
       </c>
       <c r="AT269" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AU269" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV269" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW269" s="1"/>
       <c r="AX269" s="1">
@@ -61989,10 +61987,10 @@
         <v>1</v>
       </c>
       <c r="AZ269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB269" s="1">
         <v>0</v>
@@ -62037,7 +62035,7 @@
         <v>0</v>
       </c>
       <c r="BP269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ269" s="1">
         <v>0</v>
@@ -62084,7 +62082,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>13891</v>
+        <v>13878</v>
       </c>
       <c r="C270" s="1">
         <v>114</v>
@@ -62102,28 +62100,28 @@
         <v>310</v>
       </c>
       <c r="H270" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I270" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J270" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K270" t="s">
         <v>412</v>
       </c>
       <c r="L270" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P270" s="1">
         <v>0</v>
@@ -62144,16 +62142,18 @@
         <v>0</v>
       </c>
       <c r="V270" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="W270" s="1">
         <v>1</v>
       </c>
       <c r="X270" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Y270" s="1"/>
-      <c r="Z270" s="1"/>
+      <c r="Z270" s="1">
+        <v>1</v>
+      </c>
       <c r="AA270" s="1">
         <v>1</v>
       </c>
@@ -62163,17 +62163,17 @@
         <v>304</v>
       </c>
       <c r="AE270" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="AF270" t="s">
-        <v>304</v>
+        <v>579</v>
       </c>
       <c r="AG270" s="1"/>
       <c r="AH270" s="1"/>
-      <c r="AI270" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ270" s="1"/>
+      <c r="AI270" s="1"/>
+      <c r="AJ270" s="1">
+        <v>1</v>
+      </c>
       <c r="AK270" s="1"/>
       <c r="AL270" s="1"/>
       <c r="AM270" s="1"/>
@@ -62190,13 +62190,13 @@
         <v>0</v>
       </c>
       <c r="AT270" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AU270" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV270" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW270" s="1"/>
       <c r="AX270" s="1">
@@ -62206,10 +62206,10 @@
         <v>1</v>
       </c>
       <c r="AZ270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB270" s="1">
         <v>0</v>
@@ -62221,10 +62221,10 @@
         <v>0</v>
       </c>
       <c r="BE270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG270" s="1">
         <v>0</v>
@@ -62254,7 +62254,7 @@
         <v>0</v>
       </c>
       <c r="BP270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ270" s="1">
         <v>0</v>
@@ -62301,7 +62301,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>13892</v>
+        <v>13891</v>
       </c>
       <c r="C271" s="1">
         <v>114</v>
@@ -62322,10 +62322,10 @@
         <v>389</v>
       </c>
       <c r="I271" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J271" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K271" t="s">
         <v>412</v>
@@ -62361,18 +62361,16 @@
         <v>0</v>
       </c>
       <c r="V271" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="W271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y271" s="1"/>
-      <c r="Z271" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z271" s="1"/>
       <c r="AA271" s="1">
         <v>1</v>
       </c>
@@ -62382,38 +62380,40 @@
         <v>304</v>
       </c>
       <c r="AE271" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AF271" t="s">
         <v>304</v>
       </c>
       <c r="AG271" s="1"/>
       <c r="AH271" s="1"/>
-      <c r="AI271" s="1"/>
-      <c r="AJ271" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI271" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ271" s="1"/>
       <c r="AK271" s="1"/>
       <c r="AL271" s="1"/>
       <c r="AM271" s="1"/>
       <c r="AN271" s="1"/>
       <c r="AO271" s="1"/>
       <c r="AP271" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ271" s="1"/>
+        <v>662</v>
+      </c>
+      <c r="AQ271" s="1">
+        <v>1</v>
+      </c>
       <c r="AR271" s="1"/>
       <c r="AS271" s="1">
         <v>0</v>
       </c>
       <c r="AT271" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AU271" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV271" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW271" s="1"/>
       <c r="AX271" s="1">
@@ -62438,10 +62438,10 @@
         <v>0</v>
       </c>
       <c r="BE271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG271" s="1">
         <v>0</v>
@@ -62518,7 +62518,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>13893</v>
+        <v>13892</v>
       </c>
       <c r="C272" s="1">
         <v>114</v>
@@ -62584,13 +62584,15 @@
         <v>0</v>
       </c>
       <c r="X272" t="s">
-        <v>304</v>
+        <v>531</v>
       </c>
       <c r="Y272" s="1"/>
       <c r="Z272" s="1">
         <v>1</v>
       </c>
-      <c r="AA272" s="1"/>
+      <c r="AA272" s="1">
+        <v>1</v>
+      </c>
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
       <c r="AD272" t="s">
@@ -62614,23 +62616,21 @@
       <c r="AN272" s="1"/>
       <c r="AO272" s="1"/>
       <c r="AP272" t="s">
-        <v>662</v>
-      </c>
-      <c r="AQ272" s="1">
-        <v>1</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ272" s="1"/>
       <c r="AR272" s="1"/>
       <c r="AS272" s="1">
         <v>0</v>
       </c>
       <c r="AT272" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AU272" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV272" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW272" s="1"/>
       <c r="AX272" s="1">
@@ -62643,10 +62643,10 @@
         <v>0</v>
       </c>
       <c r="BA272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC272" s="1">
         <v>0</v>
@@ -62658,7 +62658,7 @@
         <v>0</v>
       </c>
       <c r="BF272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG272" s="1">
         <v>0</v>
@@ -62688,7 +62688,7 @@
         <v>0</v>
       </c>
       <c r="BP272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ272" s="1">
         <v>0</v>
@@ -62735,13 +62735,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>13894</v>
+        <v>13893</v>
       </c>
       <c r="C273" s="1">
         <v>114</v>
       </c>
       <c r="D273" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E273" t="s">
         <v>304</v>
@@ -62753,7 +62753,7 @@
         <v>310</v>
       </c>
       <c r="H273" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I273" t="s">
         <v>404</v>
@@ -62762,16 +62762,16 @@
         <v>404</v>
       </c>
       <c r="K273" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L273" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="M273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O273" s="1">
         <v>0</v>
@@ -62792,10 +62792,10 @@
         <v>0</v>
       </c>
       <c r="U273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V273" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="W273" s="1">
         <v>0</v>
@@ -62804,7 +62804,9 @@
         <v>304</v>
       </c>
       <c r="Y273" s="1"/>
-      <c r="Z273" s="1"/>
+      <c r="Z273" s="1">
+        <v>1</v>
+      </c>
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
@@ -62812,7 +62814,7 @@
         <v>304</v>
       </c>
       <c r="AE273" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="AF273" t="s">
         <v>304</v>
@@ -62820,46 +62822,48 @@
       <c r="AG273" s="1"/>
       <c r="AH273" s="1"/>
       <c r="AI273" s="1"/>
-      <c r="AJ273" s="1"/>
+      <c r="AJ273" s="1">
+        <v>1</v>
+      </c>
       <c r="AK273" s="1"/>
       <c r="AL273" s="1"/>
       <c r="AM273" s="1"/>
       <c r="AN273" s="1"/>
       <c r="AO273" s="1"/>
       <c r="AP273" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR273" s="1"/>
       <c r="AS273" s="1">
         <v>0</v>
       </c>
       <c r="AT273" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU273" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV273" s="1">
         <v>2</v>
       </c>
       <c r="AW273" s="1"/>
       <c r="AX273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ273" s="1">
         <v>0</v>
       </c>
       <c r="BA273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC273" s="1">
         <v>0</v>
@@ -62871,7 +62875,7 @@
         <v>0</v>
       </c>
       <c r="BF273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG273" s="1">
         <v>0</v>
@@ -62901,16 +62905,16 @@
         <v>0</v>
       </c>
       <c r="BP273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ273" s="1">
         <v>0</v>
       </c>
       <c r="BR273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT273" s="1">
         <v>0</v>
@@ -62948,7 +62952,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>13895</v>
+        <v>13894</v>
       </c>
       <c r="C274" s="1">
         <v>114</v>
@@ -62978,13 +62982,13 @@
         <v>413</v>
       </c>
       <c r="L274" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="M274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O274" s="1">
         <v>0</v>
@@ -63005,29 +63009,27 @@
         <v>0</v>
       </c>
       <c r="U274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V274" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="W274" s="1">
         <v>0</v>
       </c>
       <c r="X274" t="s">
-        <v>521</v>
+        <v>304</v>
       </c>
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
-      <c r="AA274" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
       <c r="AD274" t="s">
         <v>304</v>
       </c>
       <c r="AE274" t="s">
-        <v>304</v>
+        <v>611</v>
       </c>
       <c r="AF274" t="s">
         <v>304</v>
@@ -63042,28 +63044,30 @@
       <c r="AN274" s="1"/>
       <c r="AO274" s="1"/>
       <c r="AP274" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ274" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ274" s="1">
+        <v>0</v>
+      </c>
       <c r="AR274" s="1"/>
       <c r="AS274" s="1">
         <v>0</v>
       </c>
       <c r="AT274" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="AU274" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV274" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW274" s="1"/>
       <c r="AX274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ274" s="1">
         <v>0</v>
@@ -63120,10 +63124,10 @@
         <v>0</v>
       </c>
       <c r="BR274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT274" s="1">
         <v>0</v>
@@ -63161,13 +63165,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>13950</v>
+        <v>13895</v>
       </c>
       <c r="C275" s="1">
         <v>114</v>
       </c>
       <c r="D275" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E275" t="s">
         <v>304</v>
@@ -63179,7 +63183,7 @@
         <v>310</v>
       </c>
       <c r="H275" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I275" t="s">
         <v>404</v>
@@ -63188,7 +63192,7 @@
         <v>404</v>
       </c>
       <c r="K275" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L275" t="s">
         <v>415</v>
@@ -63221,13 +63225,13 @@
         <v>0</v>
       </c>
       <c r="V275" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="W275" s="1">
         <v>0</v>
       </c>
       <c r="X275" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
@@ -63235,24 +63239,20 @@
         <v>1</v>
       </c>
       <c r="AB275" s="1"/>
-      <c r="AC275" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC275" s="1"/>
       <c r="AD275" t="s">
         <v>304</v>
       </c>
       <c r="AE275" t="s">
-        <v>615</v>
+        <v>304</v>
       </c>
       <c r="AF275" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="AG275" s="1"/>
       <c r="AH275" s="1"/>
       <c r="AI275" s="1"/>
-      <c r="AJ275" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ275" s="1"/>
       <c r="AK275" s="1"/>
       <c r="AL275" s="1"/>
       <c r="AM275" s="1"/>
@@ -63267,22 +63267,20 @@
         <v>0</v>
       </c>
       <c r="AT275" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AU275" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV275" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW275" s="1">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AW275" s="1"/>
       <c r="AX275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ275" s="1">
         <v>0</v>
@@ -63339,10 +63337,10 @@
         <v>0</v>
       </c>
       <c r="BR275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT275" s="1">
         <v>0</v>
@@ -63380,13 +63378,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>13951</v>
+        <v>13950</v>
       </c>
       <c r="C276" s="1">
         <v>114</v>
       </c>
       <c r="D276" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E276" t="s">
         <v>304</v>
@@ -63398,31 +63396,31 @@
         <v>310</v>
       </c>
       <c r="H276" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I276" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J276" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K276" t="s">
         <v>412</v>
       </c>
       <c r="L276" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O276" s="1">
         <v>0</v>
       </c>
       <c r="P276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q276" s="1">
         <v>0</v>
@@ -63431,7 +63429,7 @@
         <v>0</v>
       </c>
       <c r="S276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T276" s="1">
         <v>0</v>
@@ -63440,17 +63438,19 @@
         <v>0</v>
       </c>
       <c r="V276" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="W276" s="1">
         <v>0</v>
       </c>
       <c r="X276" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
-      <c r="AA276" s="1"/>
+      <c r="AA276" s="1">
+        <v>1</v>
+      </c>
       <c r="AB276" s="1"/>
       <c r="AC276" s="1">
         <v>1</v>
@@ -63459,7 +63459,7 @@
         <v>304</v>
       </c>
       <c r="AE276" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AF276" t="s">
         <v>579</v>
@@ -63467,34 +63467,34 @@
       <c r="AG276" s="1"/>
       <c r="AH276" s="1"/>
       <c r="AI276" s="1"/>
-      <c r="AJ276" s="1"/>
-      <c r="AK276" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ276" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK276" s="1"/>
       <c r="AL276" s="1"/>
       <c r="AM276" s="1"/>
       <c r="AN276" s="1"/>
       <c r="AO276" s="1"/>
       <c r="AP276" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ276" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ276" s="1"/>
       <c r="AR276" s="1"/>
       <c r="AS276" s="1">
         <v>0</v>
       </c>
       <c r="AT276" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AU276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV276" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW276" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW276" s="1">
+        <v>1</v>
+      </c>
       <c r="AX276" s="1">
         <v>0</v>
       </c>
@@ -63517,10 +63517,10 @@
         <v>0</v>
       </c>
       <c r="BE276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF276" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG276" s="1">
         <v>0</v>
@@ -63597,13 +63597,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>13952</v>
+        <v>13951</v>
       </c>
       <c r="C277" s="1">
         <v>114</v>
       </c>
       <c r="D277" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E277" t="s">
         <v>304</v>
@@ -63615,31 +63615,31 @@
         <v>310</v>
       </c>
       <c r="H277" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I277" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J277" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K277" t="s">
         <v>412</v>
       </c>
       <c r="L277" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O277" s="1">
         <v>0</v>
       </c>
       <c r="P277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q277" s="1">
         <v>0</v>
@@ -63648,7 +63648,7 @@
         <v>0</v>
       </c>
       <c r="S277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T277" s="1">
         <v>0</v>
@@ -63657,43 +63657,47 @@
         <v>0</v>
       </c>
       <c r="V277" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="W277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X277" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
-      <c r="AA277" s="1">
-        <v>1</v>
-      </c>
+      <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
-      <c r="AC277" s="1"/>
+      <c r="AC277" s="1">
+        <v>1</v>
+      </c>
       <c r="AD277" t="s">
         <v>304</v>
       </c>
       <c r="AE277" t="s">
-        <v>304</v>
+        <v>617</v>
       </c>
       <c r="AF277" t="s">
-        <v>304</v>
+        <v>579</v>
       </c>
       <c r="AG277" s="1"/>
       <c r="AH277" s="1"/>
       <c r="AI277" s="1"/>
       <c r="AJ277" s="1"/>
-      <c r="AK277" s="1"/>
+      <c r="AK277" s="1">
+        <v>1</v>
+      </c>
       <c r="AL277" s="1"/>
       <c r="AM277" s="1"/>
       <c r="AN277" s="1"/>
       <c r="AO277" s="1"/>
       <c r="AP277" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ277" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ277" s="1">
+        <v>0</v>
+      </c>
       <c r="AR277" s="1"/>
       <c r="AS277" s="1">
         <v>0</v>
@@ -63702,17 +63706,17 @@
         <v>707</v>
       </c>
       <c r="AU277" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AV277" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW277" s="1"/>
       <c r="AX277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ277" s="1">
         <v>0</v>
@@ -63730,10 +63734,10 @@
         <v>0</v>
       </c>
       <c r="BE277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG277" s="1">
         <v>0</v>
@@ -63769,10 +63773,10 @@
         <v>0</v>
       </c>
       <c r="BR277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS277" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT277" s="1">
         <v>0</v>
@@ -63810,13 +63814,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>13953</v>
+        <v>13952</v>
       </c>
       <c r="C278" s="1">
         <v>114</v>
       </c>
       <c r="D278" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E278" t="s">
         <v>304</v>
@@ -63828,7 +63832,7 @@
         <v>310</v>
       </c>
       <c r="H278" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I278" t="s">
         <v>404</v>
@@ -63870,13 +63874,13 @@
         <v>0</v>
       </c>
       <c r="V278" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="W278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X278" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
@@ -63889,17 +63893,15 @@
         <v>304</v>
       </c>
       <c r="AE278" t="s">
-        <v>619</v>
+        <v>304</v>
       </c>
       <c r="AF278" t="s">
-        <v>619</v>
+        <v>304</v>
       </c>
       <c r="AG278" s="1"/>
       <c r="AH278" s="1"/>
       <c r="AI278" s="1"/>
-      <c r="AJ278" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ278" s="1"/>
       <c r="AK278" s="1"/>
       <c r="AL278" s="1"/>
       <c r="AM278" s="1"/>
@@ -63914,13 +63916,13 @@
         <v>0</v>
       </c>
       <c r="AT278" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AU278" s="1">
         <v>7</v>
       </c>
       <c r="AV278" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW278" s="1"/>
       <c r="AX278" s="1">
@@ -64025,7 +64027,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>13954</v>
+        <v>13953</v>
       </c>
       <c r="C279" s="1">
         <v>114</v>
@@ -64043,7 +64045,7 @@
         <v>310</v>
       </c>
       <c r="H279" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I279" t="s">
         <v>404</v>
@@ -64085,13 +64087,13 @@
         <v>0</v>
       </c>
       <c r="V279" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="W279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X279" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
@@ -64104,7 +64106,7 @@
         <v>304</v>
       </c>
       <c r="AE279" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="AF279" t="s">
         <v>619</v>
@@ -64112,10 +64114,10 @@
       <c r="AG279" s="1"/>
       <c r="AH279" s="1"/>
       <c r="AI279" s="1"/>
-      <c r="AJ279" s="1"/>
-      <c r="AK279" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ279" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK279" s="1"/>
       <c r="AL279" s="1"/>
       <c r="AM279" s="1"/>
       <c r="AN279" s="1"/>
@@ -64129,10 +64131,10 @@
         <v>0</v>
       </c>
       <c r="AT279" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AU279" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV279" s="1">
         <v>4</v>
@@ -64240,13 +64242,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>14011</v>
+        <v>13954</v>
       </c>
       <c r="C280" s="1">
         <v>114</v>
       </c>
       <c r="D280" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E280" t="s">
         <v>304</v>
@@ -64258,7 +64260,7 @@
         <v>310</v>
       </c>
       <c r="H280" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="I280" t="s">
         <v>404</v>
@@ -64270,7 +64272,7 @@
         <v>412</v>
       </c>
       <c r="L280" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="M280" s="1">
         <v>1</v>
@@ -64282,13 +64284,13 @@
         <v>0</v>
       </c>
       <c r="P280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q280" s="1">
         <v>0</v>
       </c>
       <c r="R280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S280" s="1">
         <v>0</v>
@@ -64300,26 +64302,26 @@
         <v>0</v>
       </c>
       <c r="V280" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="W280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X280" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
-      <c r="AA280" s="1"/>
+      <c r="AA280" s="1">
+        <v>1</v>
+      </c>
       <c r="AB280" s="1"/>
-      <c r="AC280" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC280" s="1"/>
       <c r="AD280" t="s">
-        <v>576</v>
+        <v>304</v>
       </c>
       <c r="AE280" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF280" t="s">
         <v>619</v>
@@ -64331,18 +64333,14 @@
       <c r="AK280" s="1">
         <v>1</v>
       </c>
-      <c r="AL280" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL280" s="1"/>
       <c r="AM280" s="1"/>
       <c r="AN280" s="1"/>
       <c r="AO280" s="1"/>
       <c r="AP280" t="s">
-        <v>661</v>
-      </c>
-      <c r="AQ280" s="1">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AQ280" s="1"/>
       <c r="AR280" s="1"/>
       <c r="AS280" s="1">
         <v>0</v>
@@ -64354,11 +64352,11 @@
         <v>4</v>
       </c>
       <c r="AV280" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW280" s="1"/>
       <c r="AX280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY280" s="1">
         <v>1</v>
@@ -64373,16 +64371,16 @@
         <v>0</v>
       </c>
       <c r="BC280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF280" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG280" s="1">
         <v>0</v>
@@ -64418,7 +64416,7 @@
         <v>0</v>
       </c>
       <c r="BR280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS280" s="1">
         <v>1</v>
@@ -64459,13 +64457,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>13105</v>
+        <v>14011</v>
       </c>
       <c r="C281" s="1">
         <v>114</v>
       </c>
       <c r="D281" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E281" t="s">
         <v>304</v>
@@ -64477,19 +64475,19 @@
         <v>310</v>
       </c>
       <c r="H281" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="I281" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J281" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K281" t="s">
         <v>412</v>
       </c>
       <c r="L281" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M281" s="1">
         <v>1</v>
@@ -64498,16 +64496,16 @@
         <v>1</v>
       </c>
       <c r="O281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q281" s="1">
         <v>0</v>
       </c>
       <c r="R281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S281" s="1">
         <v>0</v>
@@ -64519,28 +64517,26 @@
         <v>0</v>
       </c>
       <c r="V281" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="W281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X281" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Y281" s="1"/>
-      <c r="Z281" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA281" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z281" s="1"/>
+      <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
-      <c r="AC281" s="1"/>
+      <c r="AC281" s="1">
+        <v>1</v>
+      </c>
       <c r="AD281" t="s">
-        <v>304</v>
+        <v>576</v>
       </c>
       <c r="AE281" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="AF281" t="s">
         <v>619</v>
@@ -64559,9 +64555,11 @@
       <c r="AN281" s="1"/>
       <c r="AO281" s="1"/>
       <c r="AP281" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ281" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="AQ281" s="1">
+        <v>0</v>
+      </c>
       <c r="AR281" s="1"/>
       <c r="AS281" s="1">
         <v>0</v>
@@ -64570,17 +64568,17 @@
         <v>709</v>
       </c>
       <c r="AU281" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV281" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW281" s="1"/>
       <c r="AX281" s="1">
         <v>0</v>
       </c>
       <c r="AY281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ281" s="1">
         <v>0</v>
@@ -64592,16 +64590,16 @@
         <v>0</v>
       </c>
       <c r="BC281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG281" s="1">
         <v>0</v>
@@ -64640,7 +64638,7 @@
         <v>0</v>
       </c>
       <c r="BS281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT281" s="1">
         <v>0</v>
